--- a/Excel/GoodsConfig.xlsx
+++ b/Excel/GoodsConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E97B7EE-FD75-470E-8020-BE0E40C693C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A45C98-16A0-4D0C-A186-84D79DB08012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:J28"/>
+  <dimension ref="A3:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="C8" sqref="C8:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -576,141 +576,412 @@
       <c r="H7"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>106</v>
+      </c>
+      <c r="D8">
+        <v>1000001</v>
+      </c>
+      <c r="E8">
+        <v>1002</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>107</v>
+      </c>
+      <c r="D9">
+        <v>1000002</v>
+      </c>
+      <c r="E9">
+        <v>1002</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>108</v>
+      </c>
+      <c r="D10">
+        <v>1000003</v>
+      </c>
+      <c r="E10">
+        <v>1002</v>
+      </c>
+      <c r="F10" s="5">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>109</v>
+      </c>
+      <c r="D11">
+        <v>1000004</v>
+      </c>
+      <c r="E11">
+        <v>1002</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>110</v>
+      </c>
+      <c r="D12">
+        <v>1000005</v>
+      </c>
+      <c r="E12">
+        <v>1002</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13">
+        <v>111</v>
+      </c>
+      <c r="D13">
+        <v>1000006</v>
+      </c>
+      <c r="E13">
+        <v>1002</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="C14">
+        <v>112</v>
+      </c>
+      <c r="D14">
+        <v>1000007</v>
+      </c>
+      <c r="E14">
+        <v>1002</v>
+      </c>
+      <c r="F14" s="5">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="C15">
+        <v>113</v>
+      </c>
+      <c r="D15">
+        <v>1000008</v>
+      </c>
+      <c r="E15">
+        <v>1002</v>
+      </c>
+      <c r="F15" s="5">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="C16">
+        <v>114</v>
+      </c>
+      <c r="D16">
+        <v>1000009</v>
+      </c>
+      <c r="E16">
+        <v>1002</v>
+      </c>
+      <c r="F16" s="5">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="C17">
+        <v>115</v>
+      </c>
+      <c r="D17">
+        <v>1000010</v>
+      </c>
+      <c r="E17">
+        <v>1002</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="C18">
+        <v>116</v>
+      </c>
+      <c r="D18">
+        <v>1000011</v>
+      </c>
+      <c r="E18">
+        <v>1002</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19">
+        <v>117</v>
+      </c>
+      <c r="D19">
+        <v>1000012</v>
+      </c>
+      <c r="E19">
+        <v>1002</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>118</v>
+      </c>
+      <c r="D20">
+        <v>1000013</v>
+      </c>
+      <c r="E20">
+        <v>1002</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="C21">
+        <v>119</v>
+      </c>
+      <c r="D21">
+        <v>1000014</v>
+      </c>
+      <c r="E21">
+        <v>1002</v>
+      </c>
+      <c r="F21" s="5">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="C22">
+        <v>120</v>
+      </c>
+      <c r="D22">
+        <v>1000015</v>
+      </c>
+      <c r="E22">
+        <v>1002</v>
+      </c>
+      <c r="F22" s="5">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="C23">
+        <v>121</v>
+      </c>
+      <c r="D23">
+        <v>1000016</v>
+      </c>
+      <c r="E23">
+        <v>1002</v>
+      </c>
+      <c r="F23" s="5">
+        <v>10</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="C24">
+        <v>122</v>
+      </c>
+      <c r="D24">
+        <v>1000017</v>
+      </c>
+      <c r="E24">
+        <v>1002</v>
+      </c>
+      <c r="F24" s="5">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>123</v>
+      </c>
+      <c r="D25">
+        <v>1000018</v>
+      </c>
+      <c r="E25">
+        <v>1002</v>
+      </c>
+      <c r="F25" s="5">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>124</v>
+      </c>
+      <c r="D26">
+        <v>1000019</v>
+      </c>
+      <c r="E26">
+        <v>1002</v>
+      </c>
+      <c r="F26" s="5">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>125</v>
+      </c>
+      <c r="D27">
+        <v>1000020</v>
+      </c>
+      <c r="E27">
+        <v>1002</v>
+      </c>
+      <c r="F27" s="5">
+        <v>10</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>126</v>
+      </c>
+      <c r="D28">
+        <v>1000021</v>
+      </c>
+      <c r="E28">
+        <v>1002</v>
+      </c>
+      <c r="F28" s="5">
+        <v>10</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>127</v>
+      </c>
+      <c r="D29">
+        <v>1000022</v>
+      </c>
+      <c r="E29">
+        <v>1002</v>
+      </c>
+      <c r="F29" s="5">
+        <v>10</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>128</v>
+      </c>
+      <c r="D30">
+        <v>1000023</v>
+      </c>
+      <c r="E30">
+        <v>1002</v>
+      </c>
+      <c r="F30" s="5">
+        <v>10</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <v>129</v>
+      </c>
+      <c r="D31">
+        <v>1000024</v>
+      </c>
+      <c r="E31">
+        <v>1002</v>
+      </c>
+      <c r="F31" s="5">
+        <v>10</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/GoodsConfig.xlsx
+++ b/Excel/GoodsConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A45C98-16A0-4D0C-A186-84D79DB08012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7A1289-7FDA-4F26-8B85-FB4A93D01F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -156,8 +156,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:J31"/>
+  <dimension ref="A3:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C31"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -474,7 +480,8 @@
     <col min="1" max="1" width="21.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" style="1" customWidth="1"/>
     <col min="3" max="4" width="12.6328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="13.08984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.26953125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -539,447 +546,1110 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C6">
+      <c r="C6" s="5">
         <v>104</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>1006</v>
       </c>
-      <c r="E6">
-        <v>1002</v>
-      </c>
-      <c r="F6" s="5">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="E6" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F6" s="6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6">
         <v>1</v>
       </c>
       <c r="H6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C7">
+      <c r="C7" s="5">
         <v>105</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>1007</v>
       </c>
-      <c r="E7">
-        <v>1002</v>
-      </c>
-      <c r="F7" s="5">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="E7" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C8">
+      <c r="C8" s="5">
         <v>106</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>1000001</v>
       </c>
-      <c r="E8">
-        <v>1002</v>
-      </c>
-      <c r="F8" s="5">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="E8" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C9">
+      <c r="C9" s="5">
         <v>107</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>1000002</v>
       </c>
-      <c r="E9">
-        <v>1002</v>
-      </c>
-      <c r="F9" s="5">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="E9" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F9" s="6">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C10">
+      <c r="C10" s="5">
         <v>108</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>1000003</v>
       </c>
-      <c r="E10">
-        <v>1002</v>
-      </c>
-      <c r="F10" s="5">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="E10" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F10" s="6">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C11">
+      <c r="C11" s="5">
         <v>109</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>1000004</v>
       </c>
-      <c r="E11">
-        <v>1002</v>
-      </c>
-      <c r="F11" s="5">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="E11" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F11" s="6">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C12">
+      <c r="C12" s="5">
         <v>110</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>1000005</v>
       </c>
-      <c r="E12">
-        <v>1002</v>
-      </c>
-      <c r="F12" s="5">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="E12" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F12" s="6">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C13">
+      <c r="C13" s="5">
         <v>111</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>1000006</v>
       </c>
-      <c r="E13">
-        <v>1002</v>
-      </c>
-      <c r="F13" s="5">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="E13" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F13" s="6">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C14">
+      <c r="C14" s="5">
         <v>112</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>1000007</v>
       </c>
-      <c r="E14">
-        <v>1002</v>
-      </c>
-      <c r="F14" s="5">
-        <v>10</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="E14" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F14" s="6">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C15">
+      <c r="C15" s="5">
         <v>113</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>1000008</v>
       </c>
-      <c r="E15">
-        <v>1002</v>
-      </c>
-      <c r="F15" s="5">
-        <v>10</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="E15" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F15" s="6">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="C16">
+      <c r="C16" s="5">
         <v>114</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>1000009</v>
       </c>
-      <c r="E16">
-        <v>1002</v>
-      </c>
-      <c r="F16" s="5">
-        <v>10</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="E16" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F16" s="6">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C17">
+      <c r="C17" s="5">
         <v>115</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>1000010</v>
       </c>
-      <c r="E17">
-        <v>1002</v>
-      </c>
-      <c r="F17" s="5">
-        <v>10</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="E17" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C18">
+      <c r="C18" s="5">
         <v>116</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>1000011</v>
       </c>
-      <c r="E18">
-        <v>1002</v>
-      </c>
-      <c r="F18" s="5">
-        <v>10</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="E18" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F18" s="6">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C19">
+      <c r="C19" s="5">
         <v>117</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>1000012</v>
       </c>
-      <c r="E19">
-        <v>1002</v>
-      </c>
-      <c r="F19" s="5">
-        <v>10</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="E19" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F19" s="6">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C20">
+      <c r="C20" s="5">
         <v>118</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>1000013</v>
       </c>
-      <c r="E20">
-        <v>1002</v>
-      </c>
-      <c r="F20" s="5">
-        <v>10</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="E20" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F20" s="6">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C21">
+      <c r="C21" s="5">
         <v>119</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>1000014</v>
       </c>
-      <c r="E21">
-        <v>1002</v>
-      </c>
-      <c r="F21" s="5">
-        <v>10</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="E21" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F21" s="6">
+        <v>10</v>
+      </c>
+      <c r="G21" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C22">
+      <c r="C22" s="5">
         <v>120</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>1000015</v>
       </c>
-      <c r="E22">
-        <v>1002</v>
-      </c>
-      <c r="F22" s="5">
-        <v>10</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="E22" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F22" s="6">
+        <v>10</v>
+      </c>
+      <c r="G22" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C23">
+      <c r="C23" s="5">
         <v>121</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>1000016</v>
       </c>
-      <c r="E23">
-        <v>1002</v>
-      </c>
-      <c r="F23" s="5">
-        <v>10</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="E23" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F23" s="6">
+        <v>10</v>
+      </c>
+      <c r="G23" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C24">
+      <c r="C24" s="5">
         <v>122</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>1000017</v>
       </c>
-      <c r="E24">
-        <v>1002</v>
-      </c>
-      <c r="F24" s="5">
-        <v>10</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="E24" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F24" s="6">
+        <v>10</v>
+      </c>
+      <c r="G24" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C25">
+      <c r="C25" s="5">
         <v>123</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>1000018</v>
       </c>
-      <c r="E25">
-        <v>1002</v>
-      </c>
-      <c r="F25" s="5">
-        <v>10</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="E25" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F25" s="6">
+        <v>10</v>
+      </c>
+      <c r="G25" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C26">
+      <c r="C26" s="5">
         <v>124</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>1000019</v>
       </c>
-      <c r="E26">
-        <v>1002</v>
-      </c>
-      <c r="F26" s="5">
-        <v>10</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="E26" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F26" s="6">
+        <v>10</v>
+      </c>
+      <c r="G26" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C27">
+      <c r="C27" s="5">
         <v>125</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>1000020</v>
       </c>
-      <c r="E27">
-        <v>1002</v>
-      </c>
-      <c r="F27" s="5">
-        <v>10</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="E27" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F27" s="6">
+        <v>10</v>
+      </c>
+      <c r="G27" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C28">
+      <c r="C28" s="5">
         <v>126</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>1000021</v>
       </c>
-      <c r="E28">
-        <v>1002</v>
-      </c>
-      <c r="F28" s="5">
-        <v>10</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="E28" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F28" s="6">
+        <v>10</v>
+      </c>
+      <c r="G28" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C29">
+      <c r="C29" s="5">
         <v>127</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>1000022</v>
       </c>
-      <c r="E29">
-        <v>1002</v>
-      </c>
-      <c r="F29" s="5">
-        <v>10</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="E29" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F29" s="6">
+        <v>10</v>
+      </c>
+      <c r="G29" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C30">
+      <c r="C30" s="5">
         <v>128</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>1000023</v>
       </c>
-      <c r="E30">
-        <v>1002</v>
-      </c>
-      <c r="F30" s="5">
-        <v>10</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="E30" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F30" s="6">
+        <v>10</v>
+      </c>
+      <c r="G30" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="3:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="C31">
+      <c r="C31" s="5">
         <v>129</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>1000024</v>
       </c>
-      <c r="E31">
-        <v>1002</v>
-      </c>
-      <c r="F31" s="5">
-        <v>10</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="E31" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F31" s="6">
+        <v>10</v>
+      </c>
+      <c r="G31" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C32" s="5">
+        <v>130</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1000025</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F32" s="6">
+        <v>10</v>
+      </c>
+      <c r="G32" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C33" s="5">
+        <v>131</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1000026</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F33" s="6">
+        <v>10</v>
+      </c>
+      <c r="G33" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C34" s="5">
+        <v>132</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1000027</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F34" s="6">
+        <v>10</v>
+      </c>
+      <c r="G34" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C35" s="5">
+        <v>133</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1000028</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F35" s="6">
+        <v>10</v>
+      </c>
+      <c r="G35" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C36" s="5">
+        <v>134</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1000029</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F36" s="6">
+        <v>10</v>
+      </c>
+      <c r="G36" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C37" s="5">
+        <v>135</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1000030</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F37" s="6">
+        <v>10</v>
+      </c>
+      <c r="G37" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C38" s="5">
+        <v>136</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1000031</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F38" s="6">
+        <v>10</v>
+      </c>
+      <c r="G38" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C39" s="5">
+        <v>137</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1000032</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F39" s="6">
+        <v>10</v>
+      </c>
+      <c r="G39" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C40" s="5">
+        <v>138</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1000033</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F40" s="6">
+        <v>10</v>
+      </c>
+      <c r="G40" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C41" s="5">
+        <v>139</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1000034</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F41" s="6">
+        <v>10</v>
+      </c>
+      <c r="G41" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C42" s="5">
+        <v>140</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1000035</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F42" s="6">
+        <v>10</v>
+      </c>
+      <c r="G42" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C43" s="5">
+        <v>141</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1000036</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F43" s="6">
+        <v>10</v>
+      </c>
+      <c r="G43" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C44" s="5">
+        <v>142</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1000037</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F44" s="6">
+        <v>10</v>
+      </c>
+      <c r="G44" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C45" s="5">
+        <v>143</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1000038</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F45" s="6">
+        <v>10</v>
+      </c>
+      <c r="G45" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C46" s="5">
+        <v>144</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1000039</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F46" s="6">
+        <v>10</v>
+      </c>
+      <c r="G46" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C47" s="5">
+        <v>145</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1000040</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F47" s="6">
+        <v>10</v>
+      </c>
+      <c r="G47" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C48" s="5">
+        <v>146</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1000041</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F48" s="6">
+        <v>10</v>
+      </c>
+      <c r="G48" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C49" s="5">
+        <v>147</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1000042</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F49" s="6">
+        <v>10</v>
+      </c>
+      <c r="G49" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C50" s="5">
+        <v>148</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1000043</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F50" s="6">
+        <v>10</v>
+      </c>
+      <c r="G50" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C51" s="5">
+        <v>149</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1000044</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F51" s="6">
+        <v>10</v>
+      </c>
+      <c r="G51" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C52" s="5">
+        <v>150</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1000045</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F52" s="6">
+        <v>10</v>
+      </c>
+      <c r="G52" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C53" s="5">
+        <v>151</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1000046</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F53" s="6">
+        <v>10</v>
+      </c>
+      <c r="G53" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C54" s="5">
+        <v>152</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1000047</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F54" s="6">
+        <v>10</v>
+      </c>
+      <c r="G54" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C55" s="5">
+        <v>153</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1000048</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F55" s="6">
+        <v>10</v>
+      </c>
+      <c r="G55" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C56" s="5">
+        <v>154</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1000049</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F56" s="6">
+        <v>10</v>
+      </c>
+      <c r="G56" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C57" s="5">
+        <v>155</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1000050</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F57" s="6">
+        <v>10</v>
+      </c>
+      <c r="G57" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C58" s="5">
+        <v>156</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1000051</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F58" s="6">
+        <v>10</v>
+      </c>
+      <c r="G58" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C59" s="5">
+        <v>157</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1000052</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F59" s="6">
+        <v>10</v>
+      </c>
+      <c r="G59" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C60" s="5">
+        <v>158</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1000053</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F60" s="6">
+        <v>10</v>
+      </c>
+      <c r="G60" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C61" s="5">
+        <v>159</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1000054</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F61" s="6">
+        <v>10</v>
+      </c>
+      <c r="G61" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C62" s="5">
+        <v>160</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1000055</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F62" s="6">
+        <v>10</v>
+      </c>
+      <c r="G62" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C63" s="5">
+        <v>161</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1000056</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F63" s="6">
+        <v>10</v>
+      </c>
+      <c r="G63" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C64" s="5">
+        <v>162</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1000057</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F64" s="6">
+        <v>10</v>
+      </c>
+      <c r="G64" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C65" s="5">
+        <v>163</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1000058</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F65" s="6">
+        <v>10</v>
+      </c>
+      <c r="G65" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C66" s="5">
+        <v>164</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1000059</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F66" s="6">
+        <v>10</v>
+      </c>
+      <c r="G66" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C67" s="5">
+        <v>165</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1000060</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F67" s="6">
+        <v>10</v>
+      </c>
+      <c r="G67" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C68" s="5">
+        <v>166</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1000061</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F68" s="6">
+        <v>10</v>
+      </c>
+      <c r="G68" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C69" s="5">
+        <v>167</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1000062</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F69" s="6">
+        <v>10</v>
+      </c>
+      <c r="G69" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="C70" s="5">
+        <v>168</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1000063</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F70" s="6">
+        <v>10</v>
+      </c>
+      <c r="G70" s="7">
         <v>2</v>
       </c>
     </row>
